--- a/point_disorder_paper/figures - Copy/peak_results.xlsx
+++ b/point_disorder_paper/figures - Copy/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BEA6A50-AD7A-49A2-B837-5AF1DC7D23AF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9378CFB-32F5-4A39-B50F-AD80494C9F8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -944,7 +944,7 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="B2:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1018,10 +1018,10 @@
         <v>12</v>
       </c>
       <c r="E5" s="5">
-        <v>0.43</v>
+        <v>0.44</v>
       </c>
       <c r="F5" s="7">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
   </sheetData>

--- a/point_disorder_paper/figures - Copy/peak_results.xlsx
+++ b/point_disorder_paper/figures - Copy/peak_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rsjon_000\Documents\point-disorder\point_disorder_paper\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9378CFB-32F5-4A39-B50F-AD80494C9F8D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA30F5D3-30D0-4891-B305-3E9AEB7886F6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,24 +47,27 @@
     <t>Reforested zone</t>
   </si>
   <si>
-    <t>Reforested area near
-Atwell Airport, Mooresville, NC</t>
-  </si>
-  <si>
     <t>Rowell's Apple House
 near Crab Orchard, TN</t>
   </si>
   <si>
-    <t>Lockeland Springs neighborhood
-in East Nashville, TN</t>
-  </si>
-  <si>
     <t>Corresponding
 Accuracy</t>
   </si>
   <si>
+    <t>Lockeland Springs
+neighborhood
+in East Nashville, TN</t>
+  </si>
+  <si>
+    <t>Reforested area near
+Atwell Airport,
+Mooresville, NC</t>
+  </si>
+  <si>
     <t>Major buildings
-(homes and commerical buildings)</t>
+(homes and
+commerical buildings)</t>
   </si>
 </sst>
 </file>
@@ -944,16 +947,16 @@
   <dimension ref="B2:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F5" sqref="B2:F5"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="26.9296875" customWidth="1"/>
-    <col min="3" max="3" width="22.1328125" customWidth="1"/>
-    <col min="4" max="4" width="29.06640625" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="13.86328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" s="2" customFormat="1" ht="28.5" x14ac:dyDescent="0.45">
@@ -970,12 +973,12 @@
         <v>1</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B3" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
@@ -990,9 +993,9 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>5</v>
@@ -1007,7 +1010,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" ht="42.75" x14ac:dyDescent="0.45">
       <c r="B5" s="6" t="s">
         <v>10</v>
       </c>
